--- a/stl2.xlsx
+++ b/stl2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7E0F4-D671-4841-A3F1-9B294738C28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C45A2-6B77-4E20-BCBB-0260EA27BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
+    <workbookView xWindow="7215" yWindow="1710" windowWidth="21060" windowHeight="11025" activeTab="1" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
   <si>
     <t>mm</t>
   </si>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B960B6AD-8952-49CA-A421-D28029190566}">
   <dimension ref="B1:AK13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,86 +1216,86 @@
       <c r="B6" s="28">
         <v>80</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="15">
-        <v>70</v>
-      </c>
-      <c r="E6" s="7">
-        <v>111</v>
-      </c>
-      <c r="F6" s="7">
-        <v>45872</v>
-      </c>
-      <c r="G6" s="7">
-        <v>45693</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="E6" s="19">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>4</v>
+      </c>
+      <c r="G6" s="19">
         <v>5</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>3</v>
+      <c r="H6" s="15">
+        <v>6</v>
+      </c>
+      <c r="I6" s="19">
+        <v>7</v>
       </c>
       <c r="J6" s="15">
-        <v>764</v>
-      </c>
-      <c r="K6" s="22">
-        <v>358</v>
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>9</v>
       </c>
       <c r="L6" s="15">
-        <v>80.14</v>
-      </c>
-      <c r="M6" s="7">
-        <v>45736</v>
-      </c>
-      <c r="N6" s="7">
-        <v>23.22</v>
-      </c>
-      <c r="O6" s="7">
-        <v>32.4</v>
-      </c>
-      <c r="P6" s="7">
-        <v>8.4890000000000008</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="R6" s="7">
-        <v>5.8179999999999996</v>
-      </c>
-      <c r="S6" s="7">
-        <v>45787</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0.69769999999999999</v>
-      </c>
-      <c r="U6" s="22">
-        <v>118</v>
-      </c>
-      <c r="V6" s="24">
-        <v>1</v>
-      </c>
-      <c r="W6" s="8">
-        <v>1</v>
-      </c>
-      <c r="X6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="M6" s="19">
+        <v>11</v>
+      </c>
+      <c r="N6" s="15">
+        <v>12</v>
+      </c>
+      <c r="O6" s="19">
+        <v>13</v>
+      </c>
+      <c r="P6" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>15</v>
+      </c>
+      <c r="R6" s="15">
+        <v>16</v>
+      </c>
+      <c r="S6" s="19">
+        <v>17</v>
+      </c>
+      <c r="T6" s="15">
+        <v>18</v>
+      </c>
+      <c r="U6" s="19">
+        <v>19</v>
+      </c>
+      <c r="V6" s="15">
+        <v>20</v>
+      </c>
+      <c r="W6" s="19">
+        <v>21</v>
+      </c>
+      <c r="X6" s="15">
+        <v>22</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>25</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:37" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1306,33 +1306,83 @@
         <v>40</v>
       </c>
       <c r="D7" s="15">
-        <v>70</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AC7"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>45872</v>
+      </c>
+      <c r="G7" s="7">
+        <v>45693</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="15">
+        <v>764</v>
+      </c>
+      <c r="K7" s="22">
+        <v>358</v>
+      </c>
+      <c r="L7" s="15">
+        <v>80.14</v>
+      </c>
+      <c r="M7" s="7">
+        <v>45736</v>
+      </c>
+      <c r="N7" s="7">
+        <v>23.22</v>
+      </c>
+      <c r="O7" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="P7" s="7">
+        <v>8.4890000000000008</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="R7" s="7">
+        <v>5.8179999999999996</v>
+      </c>
+      <c r="S7" s="7">
+        <v>45787</v>
+      </c>
+      <c r="T7" s="7">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="U7" s="22">
+        <v>118</v>
+      </c>
+      <c r="V7" s="24">
+        <v>1</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:37" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="28">
@@ -1426,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF3EDFD-02CC-4193-B003-70D4ED6E4CC6}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,85 +1811,85 @@
         <v>90</v>
       </c>
       <c r="C7" s="19">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>6</v>
+      </c>
+      <c r="E7" s="19">
         <v>7</v>
       </c>
-      <c r="D7" s="15">
-        <v>60</v>
-      </c>
-      <c r="E7" s="7">
-        <v>112</v>
-      </c>
-      <c r="F7" s="7">
-        <v>45872</v>
-      </c>
-      <c r="G7" s="7">
-        <v>45693</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>46</v>
+      <c r="F7" s="15">
+        <v>8</v>
+      </c>
+      <c r="G7" s="19">
+        <v>9</v>
+      </c>
+      <c r="H7" s="15">
+        <v>10</v>
+      </c>
+      <c r="I7" s="19">
+        <v>11</v>
       </c>
       <c r="J7" s="15">
-        <v>764</v>
-      </c>
-      <c r="K7" s="22">
-        <v>358</v>
+        <v>12</v>
+      </c>
+      <c r="K7" s="19">
+        <v>13</v>
       </c>
       <c r="L7" s="15">
-        <v>80.14</v>
-      </c>
-      <c r="M7" s="7">
-        <v>45736</v>
-      </c>
-      <c r="N7" s="7">
-        <v>23.22</v>
-      </c>
-      <c r="O7" s="7">
-        <v>32.4</v>
-      </c>
-      <c r="P7" s="7">
-        <v>8.4890000000000008</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="R7" s="7">
-        <v>5.8179999999999996</v>
-      </c>
-      <c r="S7" s="7">
-        <v>45787</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0.69769999999999999</v>
-      </c>
-      <c r="U7" s="22">
-        <v>118</v>
-      </c>
-      <c r="V7" s="24">
-        <v>1</v>
-      </c>
-      <c r="W7" s="8">
-        <v>1</v>
-      </c>
-      <c r="X7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="26">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="M7" s="19">
+        <v>15</v>
+      </c>
+      <c r="N7" s="15">
+        <v>16</v>
+      </c>
+      <c r="O7" s="19">
+        <v>17</v>
+      </c>
+      <c r="P7" s="15">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>19</v>
+      </c>
+      <c r="R7" s="15">
+        <v>20</v>
+      </c>
+      <c r="S7" s="19">
+        <v>21</v>
+      </c>
+      <c r="T7" s="15">
+        <v>22</v>
+      </c>
+      <c r="U7" s="19">
+        <v>23</v>
+      </c>
+      <c r="V7" s="15">
+        <v>24</v>
+      </c>
+      <c r="W7" s="19">
+        <v>25</v>
+      </c>
+      <c r="X7" s="15">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>31</v>
       </c>
       <c r="AD7"/>
     </row>

--- a/stl2.xlsx
+++ b/stl2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26C45A2-6B77-4E20-BCBB-0260EA27BEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A53AF-A5B4-4E0B-AF03-E2270C767C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="1710" windowWidth="21060" windowHeight="11025" activeTab="1" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
+    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPE" sheetId="1" r:id="rId1"/>
     <sheet name="HEB" sheetId="4" r:id="rId2"/>
+    <sheet name="TR" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
   <si>
     <t>mm</t>
   </si>
@@ -178,6 +179,33 @@
   </si>
   <si>
     <t>59.7</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Wpl</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>ZATŘÍDĚNÍ</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -545,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -634,6 +662,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -970,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B960B6AD-8952-49CA-A421-D28029190566}">
   <dimension ref="B1:AK13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,7 +1513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF3EDFD-02CC-4193-B003-70D4ED6E4CC6}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
@@ -1984,4 +2021,348 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374BF27A-6765-4DA5-9BCC-7CD0DC23DFC7}">
+  <dimension ref="A1:AD13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="T5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28">
+        <v>80</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>45</v>
+      </c>
+      <c r="G6" s="15">
+        <v>764</v>
+      </c>
+      <c r="H6" s="22">
+        <v>358</v>
+      </c>
+      <c r="I6" s="15">
+        <v>80.14</v>
+      </c>
+      <c r="J6" s="7">
+        <v>45736</v>
+      </c>
+      <c r="K6" s="7">
+        <v>23.22</v>
+      </c>
+      <c r="L6" s="7">
+        <v>32.4</v>
+      </c>
+      <c r="M6" s="7">
+        <v>8.4890000000000008</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3.6909999999999998</v>
+      </c>
+      <c r="O6" s="24">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1</v>
+      </c>
+      <c r="R6" s="26">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+    </row>
+    <row r="7" spans="1:30" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7" s="28">
+        <v>80</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2.9</v>
+      </c>
+      <c r="D7" s="19">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15">
+        <v>12</v>
+      </c>
+      <c r="H7" s="19">
+        <v>13</v>
+      </c>
+      <c r="I7" s="15">
+        <v>14</v>
+      </c>
+      <c r="J7" s="19">
+        <v>15</v>
+      </c>
+      <c r="K7" s="15">
+        <v>16</v>
+      </c>
+      <c r="L7" s="19">
+        <v>17</v>
+      </c>
+      <c r="M7" s="15">
+        <v>18</v>
+      </c>
+      <c r="N7" s="19">
+        <v>19</v>
+      </c>
+      <c r="O7" s="15">
+        <v>24</v>
+      </c>
+      <c r="P7" s="19">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>26</v>
+      </c>
+      <c r="R7" s="19">
+        <v>27</v>
+      </c>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+    </row>
+    <row r="8" spans="1:30" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8" s="28">
+        <v>80</v>
+      </c>
+      <c r="C8" s="36">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9" s="28">
+        <v>80</v>
+      </c>
+      <c r="C9" s="36">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="1" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" s="28">
+        <v>80</v>
+      </c>
+      <c r="C10" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C13" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stl2.xlsx
+++ b/stl2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137A53AF-A5B4-4E0B-AF03-E2270C767C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CB5125-65C9-43D4-9745-50AEB63097DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
+    <workbookView xWindow="2175" yWindow="2925" windowWidth="21600" windowHeight="11055" activeTab="2" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPE" sheetId="1" r:id="rId1"/>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2040,8 @@
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2221,7 +2222,7 @@
         <v>3.6909999999999998</v>
       </c>
       <c r="O6" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P6" s="8">
         <v>1</v>

--- a/stl2.xlsx
+++ b/stl2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel Švejda\Desktop\MemDim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CB5125-65C9-43D4-9745-50AEB63097DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317E42F4-E7E2-4ED3-B73F-7B49B0D4767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2925" windowWidth="21600" windowHeight="11055" activeTab="2" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B44795F9-18FA-4BC5-BFB7-07E0F2C6C9D6}"/>
   </bookViews>
   <sheets>
     <sheet name="IPE" sheetId="1" r:id="rId1"/>
     <sheet name="HEB" sheetId="4" r:id="rId2"/>
     <sheet name="TR" sheetId="6" r:id="rId3"/>
+    <sheet name="OBD" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="63">
   <si>
     <t>mm</t>
   </si>
@@ -206,6 +207,27 @@
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t>50 x 30</t>
+  </si>
+  <si>
+    <t>mm4</t>
+  </si>
+  <si>
+    <t>OHYB OKOLO MĚKKÉ OSY</t>
+  </si>
+  <si>
+    <t>OHYB OKOLO TUHÉ OSY</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>5,0</t>
   </si>
 </sst>
 </file>
@@ -245,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -569,11 +591,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -665,11 +711,32 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2028,7 +2095,7 @@
   <dimension ref="A1:AD13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,10 +2113,10 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="16" t="s">
         <v>36</v>
       </c>
@@ -2188,50 +2255,50 @@
       <c r="C6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
         <v>2</v>
       </c>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
       <c r="F6" s="15">
-        <v>45</v>
-      </c>
-      <c r="G6" s="15">
-        <v>764</v>
-      </c>
-      <c r="H6" s="22">
-        <v>358</v>
+        <v>3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4</v>
+      </c>
+      <c r="H6" s="15">
+        <v>5</v>
       </c>
       <c r="I6" s="15">
-        <v>80.14</v>
-      </c>
-      <c r="J6" s="7">
-        <v>45736</v>
-      </c>
-      <c r="K6" s="7">
-        <v>23.22</v>
-      </c>
-      <c r="L6" s="7">
-        <v>32.4</v>
-      </c>
-      <c r="M6" s="7">
-        <v>8.4890000000000008</v>
-      </c>
-      <c r="N6" s="7">
-        <v>3.6909999999999998</v>
-      </c>
-      <c r="O6" s="24">
-        <v>5</v>
-      </c>
-      <c r="P6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>1</v>
-      </c>
-      <c r="R6" s="26">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="J6" s="19">
+        <v>7</v>
+      </c>
+      <c r="K6" s="15">
+        <v>8</v>
+      </c>
+      <c r="L6" s="15">
+        <v>9</v>
+      </c>
+      <c r="M6" s="19">
+        <v>10</v>
+      </c>
+      <c r="N6" s="15">
+        <v>11</v>
+      </c>
+      <c r="O6" s="15">
+        <v>12</v>
+      </c>
+      <c r="P6" s="19">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>14</v>
+      </c>
+      <c r="R6" s="15">
+        <v>15</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
@@ -2254,49 +2321,21 @@
       <c r="C7" s="36">
         <v>2.9</v>
       </c>
-      <c r="D7" s="19">
-        <v>5</v>
-      </c>
-      <c r="E7" s="15">
-        <v>6</v>
-      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="15">
-        <v>12</v>
-      </c>
-      <c r="H7" s="19">
-        <v>13</v>
-      </c>
-      <c r="I7" s="15">
-        <v>14</v>
-      </c>
-      <c r="J7" s="19">
-        <v>15</v>
-      </c>
-      <c r="K7" s="15">
-        <v>16</v>
-      </c>
-      <c r="L7" s="19">
-        <v>17</v>
-      </c>
-      <c r="M7" s="15">
-        <v>18</v>
-      </c>
-      <c r="N7" s="19">
-        <v>19</v>
-      </c>
-      <c r="O7" s="15">
-        <v>24</v>
-      </c>
-      <c r="P7" s="19">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>26</v>
-      </c>
-      <c r="R7" s="19">
-        <v>27</v>
-      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
@@ -2366,4 +2405,476 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B3CA90-BDE1-4252-93FD-ADEC2E5E053D}">
+  <dimension ref="B1:AC11"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+    </row>
+    <row r="3" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="D4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6">
+        <v>13</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="S6">
+        <v>16</v>
+      </c>
+      <c r="T6">
+        <v>17</v>
+      </c>
+      <c r="U6">
+        <v>18</v>
+      </c>
+      <c r="V6">
+        <v>19</v>
+      </c>
+      <c r="W6">
+        <v>20</v>
+      </c>
+      <c r="X6">
+        <v>21</v>
+      </c>
+      <c r="Y6">
+        <v>22</v>
+      </c>
+      <c r="Z6">
+        <v>23</v>
+      </c>
+      <c r="AA6">
+        <v>24</v>
+      </c>
+      <c r="AB6">
+        <v>25</v>
+      </c>
+      <c r="AC6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>34</v>
+      </c>
+      <c r="L7">
+        <v>35</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>38</v>
+      </c>
+      <c r="P7">
+        <v>39</v>
+      </c>
+      <c r="Q7">
+        <v>40</v>
+      </c>
+      <c r="R7">
+        <v>41</v>
+      </c>
+      <c r="S7">
+        <v>42</v>
+      </c>
+      <c r="T7">
+        <v>43</v>
+      </c>
+      <c r="U7">
+        <v>44</v>
+      </c>
+      <c r="V7">
+        <v>45</v>
+      </c>
+      <c r="W7">
+        <v>46</v>
+      </c>
+      <c r="X7">
+        <v>47</v>
+      </c>
+      <c r="Y7">
+        <v>48</v>
+      </c>
+      <c r="Z7">
+        <v>49</v>
+      </c>
+      <c r="AA7">
+        <v>50</v>
+      </c>
+      <c r="AB7">
+        <v>51</v>
+      </c>
+      <c r="AC7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45"/>
+      <c r="C8" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="28"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="J11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:Y2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>